--- a/REGULAR/ONT/SEDUCON, ESTELITO.xlsx
+++ b/REGULAR/ONT/SEDUCON, ESTELITO.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="202">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1505,7 +1505,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1548,7 +1548,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1612,7 +1612,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1672,7 +1672,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1738,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1801,7 +1801,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1899,7 +1899,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1958,7 +1958,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2023,7 +2023,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2066,7 +2066,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2141,7 +2141,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2327,7 +2327,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2393,7 +2393,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2451,7 +2451,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2517,7 +2517,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2573,7 +2573,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2648,7 +2648,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2691,7 +2691,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2757,7 +2757,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2813,7 +2813,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2911,7 +2911,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2974,7 +2974,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3040,7 +3040,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K454" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K455" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3418,12 +3418,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K454"/>
+  <dimension ref="A2:K455"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="3900" topLeftCell="A415" activePane="bottomLeft"/>
+      <pane ySplit="3900" topLeftCell="A421" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K428" sqref="K428"/>
+      <selection pane="bottomLeft" activeCell="G436" sqref="G436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3586,7 +3586,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>137.45400000000001</v>
+        <v>138.70400000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3596,7 +3596,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>435.5</v>
+        <v>436.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12819,13 +12819,15 @@
       <c r="B428" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C428" s="13"/>
+      <c r="C428" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D428" s="39"/>
       <c r="E428" s="9"/>
       <c r="F428" s="20"/>
-      <c r="G428" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G428" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H428" s="39">
         <v>1</v>
@@ -12837,10 +12839,10 @@
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A429" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="B429" s="20"/>
+      <c r="A429" s="40"/>
+      <c r="B429" s="20" t="s">
+        <v>179</v>
+      </c>
       <c r="C429" s="13"/>
       <c r="D429" s="39"/>
       <c r="E429" s="9"/>
@@ -12852,11 +12854,13 @@
       <c r="H429" s="39"/>
       <c r="I429" s="9"/>
       <c r="J429" s="11"/>
-      <c r="K429" s="20"/>
+      <c r="K429" s="49">
+        <v>45280</v>
+      </c>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A430" s="40">
-        <v>45292</v>
+      <c r="A430" s="47" t="s">
+        <v>201</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -12874,7 +12878,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -12892,7 +12896,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -12910,7 +12914,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -12928,7 +12932,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -12946,7 +12950,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -12964,7 +12968,7 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -12982,7 +12986,7 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -13000,7 +13004,7 @@
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -13018,7 +13022,7 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -13036,7 +13040,7 @@
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -13054,7 +13058,7 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -13072,7 +13076,7 @@
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -13090,7 +13094,7 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -13108,7 +13112,7 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -13126,7 +13130,7 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -13144,7 +13148,7 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -13162,7 +13166,7 @@
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -13180,7 +13184,7 @@
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -13198,7 +13202,7 @@
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -13216,7 +13220,7 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -13234,7 +13238,7 @@
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -13252,7 +13256,7 @@
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -13270,7 +13274,7 @@
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -13288,7 +13292,7 @@
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -13303,6 +13307,24 @@
       <c r="I454" s="9"/>
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A455" s="40">
+        <v>46023</v>
+      </c>
+      <c r="B455" s="20"/>
+      <c r="C455" s="13"/>
+      <c r="D455" s="39"/>
+      <c r="E455" s="9"/>
+      <c r="F455" s="20"/>
+      <c r="G455" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H455" s="39"/>
+      <c r="I455" s="9"/>
+      <c r="J455" s="11"/>
+      <c r="K455" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
